--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value494.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value494.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7463141953132467</v>
+        <v>1.318692803382874</v>
       </c>
       <c r="B1">
-        <v>1.110967010600738</v>
+        <v>3.286046028137207</v>
       </c>
       <c r="C1">
-        <v>2.586363970741562</v>
+        <v>5.640407562255859</v>
       </c>
       <c r="D1">
-        <v>3.788605384530812</v>
+        <v>1.717574119567871</v>
       </c>
       <c r="E1">
-        <v>1.489974219324996</v>
+        <v>1.005552411079407</v>
       </c>
     </row>
   </sheetData>
